--- a/IONS.xlsx
+++ b/IONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632AD1F-B20E-4E4A-9C79-36E50F74D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD9C57-A7DC-4717-B5ED-D375E8D10166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="390" windowWidth="36795" windowHeight="20610" activeTab="1" xr2:uid="{F38F0D3C-7665-4338-A3F8-E428269607B1}"/>
+    <workbookView xWindow="21780" yWindow="3360" windowWidth="29310" windowHeight="17115" xr2:uid="{F38F0D3C-7665-4338-A3F8-E428269607B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Price</t>
   </si>
@@ -124,6 +124,114 @@
   </si>
   <si>
     <t>OpInc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>bepirovirsen</t>
+  </si>
+  <si>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>olezarsen</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>Spinraza (nusinersen)</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>pelacarsen</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>tofersen</t>
+  </si>
+  <si>
+    <t>fesomersen</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Thrombosis</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>FB-LRx</t>
+  </si>
+  <si>
+    <t>IgAN</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Complement Factor B</t>
+  </si>
+  <si>
+    <t>eplontersen</t>
+  </si>
+  <si>
+    <t>ATTR</t>
+  </si>
+  <si>
+    <t>ION582</t>
+  </si>
+  <si>
+    <t>Angelman</t>
+  </si>
+  <si>
+    <t>ION449/AZD8233</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>PCSK9</t>
+  </si>
+  <si>
+    <t>SOD1-ALS</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>donidalorsen</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>Roche</t>
   </si>
 </sst>
 </file>
@@ -133,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -147,6 +255,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,11 +279,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,8 +385,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,74 +711,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67430BC-3ABA-4840-8ED2-E257CE79A197}">
-  <dimension ref="L2:N7"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
+      <c r="L2" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="L3" s="3">
         <v>142.05033599999999</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L4" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="3">
-        <f>+M2*M3</f>
-        <v>5426.3228351999996</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L5" t="s">
+      <c r="L4" s="3">
+        <f>+L2*L3</f>
+        <v>5667.8084063999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="L5" s="3">
         <f>314.993+1666.67</f>
         <v>1981.663</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L6" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="3">
+      <c r="L6" s="3">
         <f>621.46+543.955</f>
         <v>1165.415</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L7" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3">
-        <f>+M4-M5+M6</f>
-        <v>4610.0748351999991</v>
-      </c>
+      <c r="L7" s="3">
+        <f>+L4-L5+L6</f>
+        <v>4851.5604063999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -576,22 +995,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF866CA-42EB-4EE5-B7A0-57FB35C93595}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -861,6 +1280,9 @@
       <c r="N12" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EFA6D94A-C24C-4FCD-9370-E507CE13F310}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IONS.xlsx
+++ b/IONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD9C57-A7DC-4717-B5ED-D375E8D10166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168168E3-F2C0-4B73-BDEC-B0E2621A52FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="3360" windowWidth="29310" windowHeight="17115" xr2:uid="{F38F0D3C-7665-4338-A3F8-E428269607B1}"/>
+    <workbookView xWindow="-50100" yWindow="2280" windowWidth="28950" windowHeight="18315" xr2:uid="{F38F0D3C-7665-4338-A3F8-E428269607B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -232,12 +232,42 @@
   </si>
   <si>
     <t>Roche</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>zilganersen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -370,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,19 +420,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8272EB9C-ACC0-4748-A43F-30CF11B1D531}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,7 +756,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,18 +773,18 @@
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -754,59 +796,65 @@
       <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>142.05033599999999</v>
+        <v>146.21109100000001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>5667.8084063999995</v>
+        <v>5833.8225308999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>314.993+1666.67</f>
-        <v>1981.663</v>
+        <f>293.993+1784.693</f>
+        <v>2078.6860000000001</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -823,167 +871,141 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>621.46+543.955</f>
-        <v>1165.415</v>
+        <f>44.422+626.955+533.754+563.647</f>
+        <v>1768.7780000000002</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>4851.5604063999999</v>
+        <v>5523.9145308999996</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -993,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF866CA-42EB-4EE5-B7A0-57FB35C93595}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1009,12 +1031,12 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1073,32 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1072,8 +1118,14 @@
         <v>61.646999999999998</v>
       </c>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="4">
+        <v>61.012</v>
+      </c>
+      <c r="T3" s="4">
+        <v>56.743000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1093,8 +1145,14 @@
         <v>5.92</v>
       </c>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1114,8 +1172,14 @@
         <v>4.843</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="4">
+        <v>16.885000000000002</v>
+      </c>
+      <c r="T5" s="4">
+        <v>11.512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1146,8 +1210,28 @@
         <v>72.41</v>
       </c>
       <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="6">
+        <f>+P3+P4+P5</f>
+        <v>77.897000000000006</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:T6" si="1">+Q3+Q4+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="1"/>
+        <v>72.036000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1252,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1275,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1212,7 +1296,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1317,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1340,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
